--- a/main/ig/StructureDefinition-as-ext-person-birth-place.xlsx
+++ b/main/ig/StructureDefinition-as-ext-person-birth-place.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T16:21:11+00:00</t>
+    <t>2024-10-10T16:26:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-person-birth-place.xlsx
+++ b/main/ig/StructureDefinition-as-ext-person-birth-place.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T16:26:55+00:00</t>
+    <t>2024-10-10T16:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-person-birth-place.xlsx
+++ b/main/ig/StructureDefinition-as-ext-person-birth-place.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T16:40:38+00:00</t>
+    <t>2024-10-11T14:20:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-person-birth-place.xlsx
+++ b/main/ig/StructureDefinition-as-ext-person-birth-place.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T14:20:05+00:00</t>
+    <t>2024-10-31T12:52:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-person-birth-place.xlsx
+++ b/main/ig/StructureDefinition-as-ext-person-birth-place.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T12:52:49+00:00</t>
+    <t>2024-11-05T10:01:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-person-birth-place.xlsx
+++ b/main/ig/StructureDefinition-as-ext-person-birth-place.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-05T10:01:35+00:00</t>
+    <t>2024-11-08T16:53:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-person-birth-place.xlsx
+++ b/main/ig/StructureDefinition-as-ext-person-birth-place.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T16:53:16+00:00</t>
+    <t>2024-11-08T17:02:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-person-birth-place.xlsx
+++ b/main/ig/StructureDefinition-as-ext-person-birth-place.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T17:02:00+00:00</t>
+    <t>2024-11-08T17:33:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-person-birth-place.xlsx
+++ b/main/ig/StructureDefinition-as-ext-person-birth-place.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T17:33:21+00:00</t>
+    <t>2024-11-13T21:35:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-person-birth-place.xlsx
+++ b/main/ig/StructureDefinition-as-ext-person-birth-place.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0-snapshot-4</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T21:35:06+00:00</t>
+    <t>2024-11-14T08:22:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-person-birth-place.xlsx
+++ b/main/ig/StructureDefinition-as-ext-person-birth-place.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T08:22:05+00:00</t>
+    <t>2024-11-18T16:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-person-birth-place.xlsx
+++ b/main/ig/StructureDefinition-as-ext-person-birth-place.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T16:15:50+00:00</t>
+    <t>2024-12-02T14:05:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-person-birth-place.xlsx
+++ b/main/ig/StructureDefinition-as-ext-person-birth-place.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="112">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T14:05:36+00:00</t>
+    <t>2025-01-15T07:47:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -360,15 +360,6 @@
   </si>
   <si>
     <t>Lieu de naissance de la personne (Synonyme MOS : lieuNaissance).</t>
-  </si>
-  <si>
-    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
-  </si>
-  <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
-  </si>
-  <si>
-    <t>AD</t>
   </si>
 </sst>
 </file>
@@ -1392,11 +1383,9 @@
         <v>111</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
         <v>76</v>
@@ -1454,13 +1443,13 @@
         <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/StructureDefinition-as-ext-person-birth-place.xlsx
+++ b/main/ig/StructureDefinition-as-ext-person-birth-place.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-15T07:47:50+00:00</t>
+    <t>2025-01-27T16:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-ext-person-birth-place.xlsx
+++ b/main/ig/StructureDefinition-as-ext-person-birth-place.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T16:40:24+00:00</t>
+    <t>2025-01-27T17:01:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
